--- a/similarities/split_global/harmonic_similarity_timestamps_94.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_94.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:00', '0:00:15.865600')]</t>
+          <t>('0:00:10.160000', '0:00:13.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=0.0']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=10.16</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>isophonics_219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['A#', 'D#:min/A#', 'A#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['A', 'D:min', 'A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:50.820000', '0:00:55.640000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:01:15.058526', '0:01:45.418616')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=50.82</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G', 'D:7', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#']]</t>
+          <t>['Db', 'Ab:7', 'Db', 'Ab:7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:48.720000')]</t>
+          <t>('0:00:33.340317', '0:01:01.498839')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:43.340000', '0:00:47.700000')]</t>
+          <t>('0:01:38.820000', '0:01:46.260000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=98.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D'], ['E:7', 'A', 'D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F'], ['G:7', 'C', 'F']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:22.597946', '0:00:31.200939'), ('0:00:00.446618', '0:00:10.953139')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:05.776000', '0:00:09.009000'), ('0:00:35.997000', '0:00:42.131000')]</t>
+          <t>('0:00:14.840000', '0:00:22.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=22.597946', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=14.84</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_39</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:57.860000', '0:01:03.440000')]</t>
+          <t>('0:00:58.400000', '0:01:00.680000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:27.160000', '0:00:38.460000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=57.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-39#t=27.16']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:23.632675', '0:00:27.452358')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:01:00.120000', '0:01:01.360000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=23.632675']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:7/G#', 'A:7/G', 'D:maj/F#']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:54.260000', '0:01:01.020000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:02.900000', '0:00:11.630000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=54.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:08.660000', '0:01:23.380000')]</t>
+          <t>('0:00:42.560000', '0:00:48.720000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:19.060000')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=68.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=2.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579')]</t>
+          <t>('0:00:07.400000', '0:00:16.480000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:41.080000', '0:00:43.260000')]</t>
+          <t>('0:00:01.560000', '0:00:09.740000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_116</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C:7']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:28.090907', '0:00:41.140521')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:16.880000', '0:00:20.150000')]</t>
+          <t>('0:00:00.465952', '0:00:06.886543')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-116#t=28.090907']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=16.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.540000', '0:00:13.980000')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:12.823786', '0:00:20.068412')]</t>
+          <t>('0:00:10.460000', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=4.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=12.823786']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:33.100000', '0:00:41.940000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:01:22.070000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=33.1</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D']]</t>
+          <t>['F:min7', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['Eb:maj6', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+          <t>('0:00:36.090000', '0:00:37.830000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:22.730000', '0:00:28.480000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=122.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=36.09</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=22.73</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
